--- a/biology/Zoologie/Bambara_(insecte)/Bambara_(insecte).xlsx
+++ b/biology/Zoologie/Bambara_(insecte)/Bambara_(insecte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bambara est un genre de coléoptères de la famille des Ptiliidae, dans la sous-famille des Ptiliinae et dans la tribu des Ptiliini.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors que son frère Jean Vuillet est chef du service Agriculture du Haut-Sénégal et Niger, l'entomologiste André Vuillet (d), en poste en France, profite de l'occasion et demande de lui collecter des coléoptères dans la région de Koulikoro (actuel Mali). Parmi ceux-ci, André Vuillet identifie une nouvelle espèce, Bambara joannisi, pour laquelle il crée le genre nommé en référence à l'ethnie du même nom présente au Mali[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que son frère Jean Vuillet est chef du service Agriculture du Haut-Sénégal et Niger, l'entomologiste André Vuillet (d), en poste en France, profite de l'occasion et demande de lui collecter des coléoptères dans la région de Koulikoro (actuel Mali). Parmi ceux-ci, André Vuillet identifie une nouvelle espèce, Bambara joannisi, pour laquelle il crée le genre nommé en référence à l'ethnie du même nom présente au Mali.
 			André Vuillet (1883-1914).
 			Antenne de Bambara joannisi Vuillet, 1911.
 </t>
@@ -544,7 +558,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bambara brunnea
 Bambara contorta
@@ -568,7 +584,7 @@
 Bambara thomasi
 Bambara verecunda
 Bambara wagneri
-Selon BioLib                    (26 février 2021)[2] :
+Selon BioLib                    (26 février 2021) :
 Bambara fragilis Darby, 2019
 Bambara fusca (Dybas, 1966)
 Bambara lyrae Darby, 2019
@@ -600,7 +616,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>André Vuillet, « Description d'un Trichopterigydae de l'Afrique occidentale française », Insecta : publication mensuelle de la Station entomologique de la Faculté des sciences de Rennes,‎ août 1911, p. 159-161 (lire en ligne, consulté le 22 janvier 2018).</t>
         </is>
